--- a/mipscodes.xlsx
+++ b/mipscodes.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>BIN2DEC(G6)</f>
+        <f t="shared" ref="J6:J11" si="1">BIN2DEC(G6)</f>
         <v>10</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>BIN2DEC(G7)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>BIN2DEC(G8)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f>BIN2DEC(G9)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f>BIN2DEC(G10)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f>BIN2DEC(G11)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I22" si="1">BIN2DEC(B17)</f>
+        <f t="shared" ref="I17:I22" si="2">BIN2DEC(B17)</f>
         <v>5</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>35</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>53</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>41</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
